--- a/biology/Zoologie/Imagerie_des_coquillages/Imagerie_des_coquillages.xlsx
+++ b/biology/Zoologie/Imagerie_des_coquillages/Imagerie_des_coquillages.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'imagerie des coquillages[1],[2],[3],[4],[5] est un ensemble de techniques permettant d'obtenir des images radiographiques de la structure interne de la coquille de certains mollusques. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'imagerie des coquillages est un ensemble de techniques permettant d'obtenir des images radiographiques de la structure interne de la coquille de certains mollusques. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Radiographie conventionnelle</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En agrandissement radiographique direct (enhancement) au format final 36 x43 cm (avec un tube à rayons X doté d'une cathode de 0,1 mm avec un kilovoltage à sa limite inférieure d'émission (45 kilovolts), un débit de quelques milliampères-seconde (mA·s), et sans adjonction de filtre, ni de grille antidiffusante, ni écran renforçateur à radio-luminescence, et une distance objet-film voisine du mètre (air-gaping)[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En agrandissement radiographique direct (enhancement) au format final 36 x43 cm (avec un tube à rayons X doté d'une cathode de 0,1 mm avec un kilovoltage à sa limite inférieure d'émission (45 kilovolts), un débit de quelques milliampères-seconde (mA·s), et sans adjonction de filtre, ni de grille antidiffusante, ni écran renforçateur à radio-luminescence, et une distance objet-film voisine du mètre (air-gaping).
 			Image radiographique standard de Dolium géant.
 			Image radiographique standard de Porcelaine.
 			Image radiographique standard de Triton géant.
@@ -549,11 +563,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vue  de profil
-			Image de nautile en scanographie (tomodensitométrie).
-			Image de nautile en scanographie (tomodensitométrie).
-			Image de nautile en scanographie (tomodensitométrie).
-Vue axiale
+          <t>Vue  de profil</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Image de nautile en scanographie (tomodensitométrie).
 			Image de nautile en scanographie (tomodensitométrie).
 			Image de nautile en scanographie (tomodensitométrie).
@@ -582,12 +598,22 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>IRM (Imagerie par résonance magnétique)</t>
+          <t>Scanner (tomodensitométrie)[7]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Très décevant (faible teneur en eau, et donc en ions hydrogène visualisés).</t>
+          <t>Vue axiale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Image de nautile en scanographie (tomodensitométrie).
+			Image de nautile en scanographie (tomodensitométrie).
+			Image de nautile en scanographie (tomodensitométrie).
+</t>
         </is>
       </c>
     </row>
@@ -612,10 +638,44 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>IRM (Imagerie par résonance magnétique)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Très décevant (faible teneur en eau, et donc en ions hydrogène visualisés).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Imagerie_des_coquillages</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Imagerie_des_coquillages</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Reconstruction 3D en tomodensitométrie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Reconstruction volumique tridimensionnelle de nautile en scanographie.
